--- a/Team-Data/2008-09/12-14-2008-09.xlsx
+++ b/Team-Data/2008-09/12-14-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -847,10 +847,10 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
@@ -880,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>19</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.913</v>
+        <v>0.917</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.366</v>
+        <v>0.36</v>
       </c>
       <c r="O3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="P3" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -1032,31 +1032,31 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1065,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1175,7 +1175,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1205,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>14</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.455</v>
+        <v>0.478</v>
       </c>
       <c r="H5" t="n">
         <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T5" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1342,46 +1342,46 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
@@ -1390,25 +1390,25 @@
         <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
@@ -1423,16 +1423,16 @@
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA5" t="n">
         <v>22</v>
       </c>
-      <c r="BA5" t="n">
-        <v>26</v>
-      </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,130 +1461,130 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.87</v>
+        <v>0.833</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP6" t="n">
         <v>10</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1593,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1608,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
         <v>5</v>
@@ -1721,7 +1721,7 @@
         <v>2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1757,13 +1757,13 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
@@ -1790,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1903,7 +1903,7 @@
         <v>5.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1915,10 +1915,10 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
@@ -1954,7 +1954,7 @@
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>22</v>
@@ -1969,7 +1969,7 @@
         <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2106,7 +2106,7 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2124,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR9" t="n">
         <v>23</v>
@@ -2154,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB9" t="n">
         <v>24</v>
@@ -2267,7 +2267,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2279,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2306,10 +2306,10 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
         <v>16</v>
@@ -2449,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2467,7 +2467,7 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>28</v>
@@ -2479,13 +2479,13 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2494,10 +2494,10 @@
         <v>17</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
@@ -2524,7 +2524,7 @@
         <v>23</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2658,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
         <v>20</v>
@@ -2673,10 +2673,10 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2688,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
@@ -2813,7 +2813,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2828,10 +2828,10 @@
         <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2917,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.857</v>
+        <v>0.864</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R14" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>14.5</v>
       </c>
       <c r="W14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y14" t="n">
         <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3004,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -3013,19 +3013,19 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3034,19 +3034,19 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AR14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>14</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>7</v>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3177,19 +3177,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -3198,7 +3198,7 @@
         <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3207,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>16</v>
@@ -3240,7 +3240,7 @@
         <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>24</v>
@@ -3359,13 +3359,13 @@
         <v>0.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -3383,19 +3383,19 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
         <v>7</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>6</v>
@@ -3428,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>15</v>
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3481,46 +3481,46 @@
         <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
         <v>14.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R17" t="n">
         <v>13.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>43.6</v>
       </c>
       <c r="U17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3529,40 +3529,40 @@
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
         <v>20</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3571,34 +3571,34 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
         <v>9</v>
       </c>
-      <c r="AP17" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU17" t="n">
         <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
@@ -3610,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3741,7 +3741,7 @@
         <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3759,10 +3759,10 @@
         <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3905,7 +3905,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3935,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -4123,7 +4123,7 @@
         <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4269,7 +4269,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4281,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>3</v>
@@ -4317,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>5</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>18</v>
@@ -4451,7 +4451,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4481,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>15</v>
@@ -4490,7 +4490,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
         <v>13</v>
@@ -4505,7 +4505,7 @@
         <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>15</v>
@@ -4520,7 +4520,7 @@
         <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4633,10 +4633,10 @@
         <v>5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4666,7 +4666,7 @@
         <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>5</v>
@@ -4702,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
         <v>10</v>
@@ -4815,10 +4815,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4851,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4866,16 +4866,16 @@
         <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4997,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
@@ -5012,7 +5012,7 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
         <v>14</v>
@@ -5030,10 +5030,10 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
         <v>27</v>
@@ -5042,7 +5042,7 @@
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT25" t="n">
         <v>23</v>
@@ -5057,13 +5057,13 @@
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.77</v>
       </c>
       <c r="R26" t="n">
         <v>13.3</v>
       </c>
       <c r="S26" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5161,49 +5161,49 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
@@ -5212,13 +5212,13 @@
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>3</v>
@@ -5239,22 +5239,22 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5373,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>8</v>
@@ -5382,7 +5382,7 @@
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5394,13 +5394,13 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
@@ -5543,7 +5543,7 @@
         <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5567,7 +5567,7 @@
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5597,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5615,10 +5615,10 @@
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5725,16 +5725,16 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
@@ -5770,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>29</v>
@@ -5785,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5913,10 +5913,10 @@
         <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5946,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5976,13 +5976,13 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
         <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -6089,7 +6089,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6125,10 +6125,10 @@
         <v>20</v>
       </c>
       <c r="AP31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>18</v>
       </c>
       <c r="AR31" t="n">
         <v>14</v>
@@ -6158,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>

--- a/Team-Data/2008-09/12-14-2008-09.xlsx
+++ b/Team-Data/2008-09/12-14-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -762,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
@@ -813,10 +880,10 @@
         <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -848,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.913</v>
+        <v>0.917</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
         <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.366</v>
+        <v>0.36</v>
       </c>
       <c r="O3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="P3" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -965,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>25</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -998,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1138,10 +1205,10 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1174,16 +1241,16 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.455</v>
+        <v>0.478</v>
       </c>
       <c r="H5" t="n">
         <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T5" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1275,46 +1342,46 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
@@ -1323,31 +1390,31 @@
         <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1356,16 +1423,16 @@
         <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -1394,130 +1461,130 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.87</v>
+        <v>0.833</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.5</v>
+        <v>102.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>12.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO6" t="n">
         <v>8</v>
       </c>
-      <c r="AN6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1526,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1541,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1672,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>14</v>
@@ -1690,13 +1757,13 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>7</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1705,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
@@ -1723,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>5.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
@@ -1887,7 +1954,7 @@
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>22</v>
@@ -1899,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2033,37 +2100,37 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>7</v>
       </c>
       <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>16</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>18</v>
       </c>
       <c r="AR9" t="n">
         <v>23</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>26</v>
@@ -2081,13 +2148,13 @@
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ9" t="n">
         <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
@@ -2251,19 +2318,19 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
@@ -2394,31 +2461,31 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2439,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
@@ -2457,7 +2524,7 @@
         <v>23</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2576,7 +2643,7 @@
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2585,16 +2652,16 @@
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>27</v>
@@ -2606,10 +2673,10 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
@@ -2633,7 +2700,7 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2758,13 +2825,13 @@
         <v>26</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2773,13 +2840,13 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
         <v>29</v>
@@ -2800,7 +2867,7 @@
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -2868,43 +2935,43 @@
         <v>40.1</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
         <v>28.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R14" t="n">
         <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
         <v>9.6</v>
@@ -2913,22 +2980,22 @@
         <v>5.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
         <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2937,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2946,19 +3013,19 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK14" t="n">
         <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR14" t="n">
         <v>5</v>
@@ -2979,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>14</v>
@@ -2988,10 +3055,10 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY14" t="n">
         <v>7</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>9</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>0.348</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,88 +3117,88 @@
         <v>35.7</v>
       </c>
       <c r="J15" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="K15" t="n">
         <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
         <v>13.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S15" t="n">
         <v>28.8</v>
       </c>
       <c r="T15" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U15" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y15" t="n">
-        <v>4.4</v>
-      </c>
       <c r="Z15" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA15" t="n">
         <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.8</v>
+        <v>-4.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>26</v>
@@ -3140,22 +3207,22 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT15" t="n">
         <v>28</v>
@@ -3164,28 +3231,28 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
         <v>11</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AZ15" t="n">
         <v>24</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -3214,127 +3281,127 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.522</v>
+        <v>0.545</v>
       </c>
       <c r="H16" t="n">
         <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.445</v>
+        <v>0.449</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R16" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="S16" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T16" t="n">
-        <v>40.2</v>
+        <v>39.9</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V16" t="n">
         <v>12.3</v>
       </c>
       <c r="W16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
         <v>6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>97.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN16" t="n">
         <v>21</v>
       </c>
-      <c r="AL16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>23</v>
-      </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS16" t="n">
         <v>27</v>
@@ -3343,28 +3410,28 @@
         <v>22</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
         <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB16" t="n">
         <v>15</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,46 +3481,46 @@
         <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
         <v>14.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R17" t="n">
         <v>13.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>43.6</v>
       </c>
       <c r="U17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
@@ -3462,31 +3529,31 @@
         <v>5.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>24</v>
@@ -3504,34 +3571,34 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
         <v>9</v>
       </c>
-      <c r="AP17" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU17" t="n">
         <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
@@ -3543,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
         <v>21</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.174</v>
+        <v>0.182</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="J18" t="n">
         <v>84</v>
       </c>
       <c r="K18" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M18" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="O18" t="n">
         <v>18.5</v>
@@ -3620,19 +3687,19 @@
         <v>0.766</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.6</v>
+        <v>41</v>
       </c>
       <c r="U18" t="n">
         <v>21.7</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W18" t="n">
         <v>6.1</v>
@@ -3644,37 +3711,37 @@
         <v>6.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.8</v>
+        <v>-6.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3686,25 +3753,25 @@
         <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3716,7 +3783,7 @@
         <v>29</v>
       </c>
       <c r="AX18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3853,13 +3920,13 @@
         <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
@@ -3868,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0.65</v>
+        <v>0.632</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
@@ -3963,67 +4030,67 @@
         <v>76.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.407</v>
+        <v>0.41</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.819</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T20" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U20" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X20" t="n">
         <v>4.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z20" t="n">
         <v>21.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD20" t="n">
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4053,16 +4120,16 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS20" t="n">
         <v>23</v>
@@ -4071,16 +4138,16 @@
         <v>27</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY20" t="n">
         <v>3</v>
@@ -4089,7 +4156,7 @@
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4250,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>5</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="J22" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K22" t="n">
-        <v>0.434</v>
+        <v>0.43</v>
       </c>
       <c r="L22" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M22" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O22" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R22" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S22" t="n">
         <v>29.7</v>
       </c>
       <c r="T22" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U22" t="n">
         <v>19</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
         <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z22" t="n">
         <v>22</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>93.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-9.9</v>
+        <v>-10.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4399,61 +4466,61 @@
         <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ22" t="n">
         <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>18</v>
       </c>
       <c r="AT22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
         <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
@@ -4599,7 +4666,7 @@
         <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>5</v>
@@ -4608,19 +4675,19 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4760,10 +4827,10 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
         <v>10</v>
@@ -4772,7 +4839,7 @@
         <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4784,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4799,16 +4866,16 @@
         <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>29</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
         <v>14</v>
@@ -4963,10 +5030,10 @@
         <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
         <v>27</v>
@@ -4975,13 +5042,13 @@
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT25" t="n">
         <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -4990,13 +5057,13 @@
         <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.77</v>
       </c>
       <c r="R26" t="n">
         <v>13.3</v>
       </c>
       <c r="S26" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
         <v>13.1</v>
@@ -5094,64 +5161,64 @@
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM26" t="n">
         <v>5</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>6</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>3</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>13</v>
@@ -5172,22 +5239,22 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,34 +5373,34 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>8</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
@@ -5348,13 +5415,13 @@
         <v>17</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
         <v>15</v>
@@ -5363,10 +5430,10 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -5398,88 +5465,88 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.652</v>
+        <v>0.636</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J28" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P28" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T28" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U28" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
@@ -5491,31 +5558,31 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="n">
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,13 +5591,13 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5548,10 +5615,10 @@
         <v>28</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>0.435</v>
+        <v>0.455</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="J29" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L29" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="O29" t="n">
         <v>19.8</v>
@@ -5619,82 +5686,82 @@
         <v>23.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.844</v>
+        <v>0.843</v>
       </c>
       <c r="R29" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="U29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA29" t="n">
         <v>21.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
         <v>19</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>29</v>
@@ -5712,13 +5779,13 @@
         <v>4</v>
       </c>
       <c r="AV29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5730,7 +5797,7 @@
         <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5888,19 +5955,19 @@
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5909,13 +5976,13 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
         <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6110,7 @@
         <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>20</v>
@@ -6052,16 +6119,16 @@
         <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>20</v>
       </c>
       <c r="AP31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>14</v>
@@ -6076,10 +6143,10 @@
         <v>14</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>22</v>
@@ -6088,13 +6155,13 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-14-2008-09</t>
+          <t>2008-12-14</t>
         </is>
       </c>
     </row>
